--- a/API_LX/Data/Login.xlsx
+++ b/API_LX/Data/Login.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12648" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1152" yWindow="1152" windowWidth="18276" windowHeight="10476" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -58,21 +58,21 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -338,7 +338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -346,18 +346,18 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H2" sqref="H2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="7.6640625"/>
-    <col customWidth="1" max="3" min="3" width="37.33203125"/>
-    <col customWidth="1" max="4" min="4" width="12"/>
-    <col customWidth="1" max="5" min="5" width="7.6640625"/>
-    <col customWidth="1" max="6" min="6" width="20.21875"/>
-    <col customWidth="1" max="8" min="7" width="25.33203125"/>
-    <col customWidth="1" max="9" min="9" width="11.44140625"/>
+    <col width="7.6640625" customWidth="1" min="2" max="2"/>
+    <col width="37.33203125" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="7.6640625" customWidth="1" min="5" max="5"/>
+    <col width="20.21875" customWidth="1" min="6" max="6"/>
+    <col width="25.33203125" customWidth="1" min="7" max="8"/>
+    <col width="11.44140625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -407,7 +407,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.8" r="2">
+    <row r="2" ht="49.8" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -452,7 +452,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="3">
+    <row r="3" ht="41.4" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -497,7 +497,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="4">
+    <row r="4" ht="41.4" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -542,7 +542,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="5">
+    <row r="5" ht="41.4" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -587,7 +587,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="6">
+    <row r="6" ht="41.4" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -634,10 +634,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>